--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
@@ -314,10 +314,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>852bb807e7e5673d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.914fee2415^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>92f5e031b5d59d9a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.b02151eaf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -334,10 +334,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>59e7f60e449ca5d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.4ed60e9a27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>0352b3c3ff3c165e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.342c59bb6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT3</t>
@@ -348,10 +348,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>820c1d3d9e18862b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.f5740134d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b03511f8370cf3ae</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.c219a064f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT4</t>
@@ -362,10 +362,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c81aa954b1b2c92b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.cd14e8f078^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>c9c8af8608f6f65e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.ee54a8eb07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
@@ -1685,19 +1685,25 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1710,9 +1716,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1732,9 +1735,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3468,10 +3468,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="47">
-        <v>45012</v>
+        <v>45028</v>
       </c>
       <c r="G10" s="48">
-        <v>1679922170</v>
+        <v>1681309152</v>
       </c>
       <c r="H10" t="s" s="49">
         <v>48</v>
@@ -3512,10 +3512,10 @@
         <v>53</v>
       </c>
       <c r="F11" s="47">
-        <v>45012</v>
+        <v>45028</v>
       </c>
       <c r="G11" s="48">
-        <v>1679922704</v>
+        <v>1681309205</v>
       </c>
       <c r="H11" t="s" s="49">
         <v>54</v>
@@ -3556,10 +3556,10 @@
         <v>57</v>
       </c>
       <c r="F12" s="47">
-        <v>45012</v>
+        <v>45028</v>
       </c>
       <c r="G12" s="48">
-        <v>1679923100</v>
+        <v>1681309592</v>
       </c>
       <c r="H12" t="s" s="49">
         <v>58</v>
@@ -3599,16 +3599,16 @@
       <c r="E13" t="s" s="46">
         <v>61</v>
       </c>
-      <c r="F13" s="47">
-        <v>45013</v>
-      </c>
-      <c r="G13" s="48">
-        <v>1680008851</v>
-      </c>
-      <c r="H13" t="s" s="49">
+      <c r="F13" s="55">
+        <v>45028</v>
+      </c>
+      <c r="G13" s="56">
+        <v>1681309645</v>
+      </c>
+      <c r="H13" t="s" s="57">
         <v>62</v>
       </c>
-      <c r="I13" t="s" s="49">
+      <c r="I13" t="s" s="57">
         <v>63</v>
       </c>
       <c r="J13" t="s" s="50">
@@ -3640,17 +3640,17 @@
       <c r="D14" t="s" s="45">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="55">
+      <c r="E14" t="s" s="58">
         <v>65</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="J14" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="K14" t="s" s="56">
+      <c r="K14" t="s" s="60">
         <v>67</v>
       </c>
       <c r="L14" s="52"/>
@@ -3678,38 +3678,38 @@
       <c r="D15" t="s" s="45">
         <v>69</v>
       </c>
-      <c r="E15" t="s" s="55">
+      <c r="E15" t="s" s="58">
         <v>70</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="55">
         <v>45014</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="61">
         <v>1680076800</v>
       </c>
-      <c r="H15" t="s" s="59">
+      <c r="H15" t="s" s="57">
         <v>71</v>
       </c>
-      <c r="I15" t="s" s="59">
+      <c r="I15" t="s" s="57">
         <v>72</v>
       </c>
       <c r="J15" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="62"/>
       <c r="L15" t="s" s="50">
         <v>50</v>
       </c>
       <c r="M15" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="N15" t="s" s="61">
+      <c r="N15" t="s" s="63">
         <v>73</v>
       </c>
       <c r="O15" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="P15" t="s" s="56">
+      <c r="P15" t="s" s="60">
         <v>74</v>
       </c>
       <c r="Q15" s="52"/>
@@ -3735,23 +3735,23 @@
       <c r="E16" t="s" s="46">
         <v>76</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="64">
         <v>45013</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="65">
         <v>1680008851</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
       <c r="J16" t="s" s="50">
         <v>50</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="60"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="52"/>
-      <c r="P16" t="s" s="65">
+      <c r="P16" t="s" s="66">
         <v>77</v>
       </c>
       <c r="Q16" s="52"/>
@@ -3779,10 +3779,10 @@
       <c r="E17" t="s" s="46">
         <v>79</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="59">
         <v>45013</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="67">
         <v>1680008526</v>
       </c>
       <c r="H17" t="s" s="49">
@@ -3807,7 +3807,7 @@
       <c r="O17" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P17" t="s" s="61">
+      <c r="P17" t="s" s="63">
         <v>83</v>
       </c>
       <c r="Q17" s="52"/>
@@ -3861,7 +3861,7 @@
       <c r="O18" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P18" t="s" s="67">
+      <c r="P18" t="s" s="68">
         <v>89</v>
       </c>
       <c r="Q18" s="52"/>
@@ -4239,7 +4239,7 @@
       <c r="O25" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P25" t="s" s="61">
+      <c r="P25" t="s" s="63">
         <v>131</v>
       </c>
       <c r="Q25" s="52"/>
@@ -4293,7 +4293,7 @@
       <c r="O26" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P26" t="s" s="67">
+      <c r="P26" t="s" s="68">
         <v>137</v>
       </c>
       <c r="Q26" s="52"/>
@@ -5060,54 +5060,54 @@
       </c>
     </row>
     <row r="41" ht="105.05" customHeight="1">
-      <c r="A41" s="68">
+      <c r="A41" s="69">
         <v>146</v>
       </c>
-      <c r="B41" t="s" s="69">
+      <c r="B41" t="s" s="70">
         <v>44</v>
       </c>
-      <c r="C41" t="s" s="69">
+      <c r="C41" t="s" s="70">
         <v>45</v>
       </c>
-      <c r="D41" t="s" s="69">
+      <c r="D41" t="s" s="70">
         <v>220</v>
       </c>
-      <c r="E41" t="s" s="70">
+      <c r="E41" t="s" s="71">
         <v>221</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="55">
         <v>45013</v>
       </c>
-      <c r="G41" s="71">
+      <c r="G41" s="56">
         <v>1680006606</v>
       </c>
-      <c r="H41" t="s" s="59">
+      <c r="H41" t="s" s="57">
         <v>222</v>
       </c>
-      <c r="I41" t="s" s="59">
+      <c r="I41" t="s" s="57">
         <v>223</v>
       </c>
-      <c r="J41" t="s" s="61">
+      <c r="J41" t="s" s="63">
         <v>50</v>
       </c>
       <c r="K41" s="72"/>
-      <c r="L41" t="s" s="61">
+      <c r="L41" t="s" s="63">
         <v>50</v>
       </c>
-      <c r="M41" t="s" s="61">
+      <c r="M41" t="s" s="63">
         <v>50</v>
       </c>
-      <c r="N41" t="s" s="61">
+      <c r="N41" t="s" s="63">
         <v>224</v>
       </c>
-      <c r="O41" t="s" s="61">
+      <c r="O41" t="s" s="63">
         <v>66</v>
       </c>
-      <c r="P41" t="s" s="61">
+      <c r="P41" t="s" s="63">
         <v>225</v>
       </c>
       <c r="Q41" s="73"/>
-      <c r="R41" s="61"/>
+      <c r="R41" s="63"/>
       <c r="S41" s="74"/>
       <c r="T41" t="s" s="75">
         <v>68</v>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
@@ -314,10 +314,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>92f5e031b5d59d9a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.b02151eaf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>d56a1086ee7d590c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.db1873736d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -334,10 +334,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>0352b3c3ff3c165e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.342c59bb6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>22ba7f1508a8b960</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.aee32e294e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT3</t>
@@ -348,10 +348,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>b03511f8370cf3ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.c219a064f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>c4682581308c22e4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.71def17670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT4</t>
@@ -362,10 +362,10 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c9c8af8608f6f65e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.ee54a8eb07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>c38399bc9f113d12</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.cbff8c512b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -499,7 +499,7 @@
     <t>JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)</t>
   </si>
   <si>
-    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto</t>
+    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
@@ -509,7 +509,7 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto</t>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT5_KO</t>
@@ -522,13 +522,13 @@
     <t>2943e84ef1036353</t>
   </si>
   <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>Errore in fase di estrazione del CDA.</t>
-  </si>
-  <si>
-    <t>ALERT: Errore in fase di estrazione del CDA.</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.4aeb1400ff27df85f80ae99b3e0378e094fb2d308c71361f42a5899cb81a99a5.a759ab2bdb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'structuredBody' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":confidentialityCode, \"urn:hl7-org:v3\":languageCode, \"urn:hl7-org:v3\":component}' is expected.</t>
+  </si>
+  <si>
+    <t>ALERT: Si è verificato un errore: Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'structuredBody' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":confidentialityCode, \"urn:hl7-org:v3\":languageCode, \"urn:hl7-org:v3\":component}' is expected.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
@@ -627,7 +627,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]
+Il referto viene aggiunto in una coda di errori dalla quale è possibile apportare le dovute modifiche prima di effettuare nuovamente l’invio per la validazione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
@@ -646,7 +647,7 @@
     <t>Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
-    <t>ALERT: Si è verificato un errore</t>
+    <t>ALERT: Si è verificato un errore: Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
@@ -666,6 +667,10 @@
     <t>Errore sintassi.ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
   </si>
   <si>
+    <t>ALERT: Si è verificato un errore:
+Errore sintassi.ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, ‘st'.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
   </si>
   <si>
@@ -718,6 +723,10 @@
   </si>
   <si>
     <t>Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'value' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'value' is not valid with respect to its type, 'st'.</t>
+  </si>
+  <si>
+    <t>ALERT: Si è verificato un errore:
+Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'value' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'value' is not valid with respect to its type, ‘st'.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
@@ -910,6 +919,10 @@
     <t>Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
+    <t>ALERT: Si è verificato un errore:
+Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, ‘cs'.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT26_KO</t>
   </si>
   <si>
@@ -926,7 +939,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: J]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: J]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: J].
+Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
@@ -945,7 +959,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 561asdfasdf]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 561asdfasdf]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 561asdfasdf]
+Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
@@ -965,7 +980,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.5, Codes: sdfsdfsdf]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.5, Codes: sdfsdfsdf]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.5, Codes: sdfsdfsdf]
+Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
@@ -985,7 +1001,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.2, Codes: null]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.2, Codes: null]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.2, Codes: null]
+Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
   </si>
   <si>
     <t>ID TEST CASE OK</t>
@@ -1519,7 +1536,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1712,16 +1729,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3665,7 +3688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" ht="105.55" customHeight="1">
+    <row r="15" ht="160" customHeight="1">
       <c r="A15" s="44">
         <v>43</v>
       </c>
@@ -3709,7 +3732,7 @@
       <c r="O15" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="P15" t="s" s="60">
+      <c r="P15" t="s" s="64">
         <v>74</v>
       </c>
       <c r="Q15" s="52"/>
@@ -3719,7 +3742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" ht="43" customHeight="1">
+    <row r="16" ht="108" customHeight="1">
       <c r="A16" s="44">
         <v>51</v>
       </c>
@@ -3735,10 +3758,10 @@
       <c r="E16" t="s" s="46">
         <v>76</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="65">
         <v>45013</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="66">
         <v>1680008851</v>
       </c>
       <c r="H16" s="59"/>
@@ -3751,7 +3774,7 @@
       <c r="M16" s="52"/>
       <c r="N16" s="62"/>
       <c r="O16" s="52"/>
-      <c r="P16" t="s" s="66">
+      <c r="P16" t="s" s="60">
         <v>77</v>
       </c>
       <c r="Q16" s="52"/>
@@ -3763,7 +3786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="92.55" customHeight="1">
+    <row r="17" ht="274.55" customHeight="1">
       <c r="A17" s="44">
         <v>122</v>
       </c>
@@ -3788,7 +3811,7 @@
       <c r="H17" t="s" s="49">
         <v>80</v>
       </c>
-      <c r="I17" t="s" s="49">
+      <c r="I17" t="s" s="57">
         <v>81</v>
       </c>
       <c r="J17" t="s" s="50">
@@ -3801,13 +3824,13 @@
       <c r="M17" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="N17" t="s" s="50">
+      <c r="N17" t="s" s="63">
         <v>82</v>
       </c>
       <c r="O17" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P17" t="s" s="63">
+      <c r="P17" t="s" s="68">
         <v>83</v>
       </c>
       <c r="Q17" s="52"/>
@@ -3842,7 +3865,7 @@
       <c r="H18" t="s" s="49">
         <v>86</v>
       </c>
-      <c r="I18" t="s" s="49">
+      <c r="I18" t="s" s="69">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="50">
@@ -3855,13 +3878,13 @@
       <c r="M18" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="N18" t="s" s="50">
+      <c r="N18" t="s" s="70">
         <v>88</v>
       </c>
       <c r="O18" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P18" t="s" s="68">
+      <c r="P18" t="s" s="70">
         <v>89</v>
       </c>
       <c r="Q18" s="52"/>
@@ -4033,7 +4056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="92.55" customHeight="1">
+    <row r="22" ht="170.55" customHeight="1">
       <c r="A22" s="44">
         <v>127</v>
       </c>
@@ -4087,7 +4110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="196.55" customHeight="1">
+    <row r="23" ht="209.55" customHeight="1">
       <c r="A23" s="44">
         <v>128</v>
       </c>
@@ -4141,7 +4164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="105.55" customHeight="1">
+    <row r="24" ht="118.55" customHeight="1">
       <c r="A24" s="44">
         <v>129</v>
       </c>
@@ -4186,7 +4209,7 @@
         <v>66</v>
       </c>
       <c r="P24" t="s" s="50">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="52"/>
       <c r="R24" s="50"/>
@@ -4206,10 +4229,10 @@
         <v>45</v>
       </c>
       <c r="D25" t="s" s="45">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s" s="46">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="47">
         <v>45012</v>
@@ -4218,10 +4241,10 @@
         <v>1679926794</v>
       </c>
       <c r="H25" t="s" s="49">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s" s="49">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s" s="50">
         <v>50</v>
@@ -4234,13 +4257,13 @@
         <v>50</v>
       </c>
       <c r="N25" t="s" s="50">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P25" t="s" s="63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="52"/>
       <c r="R25" s="50"/>
@@ -4260,10 +4283,10 @@
         <v>45</v>
       </c>
       <c r="D26" t="s" s="45">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s" s="46">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="47">
         <v>45012</v>
@@ -4272,10 +4295,10 @@
         <v>1679927022</v>
       </c>
       <c r="H26" t="s" s="49">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s" s="49">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s" s="50">
         <v>50</v>
@@ -4288,13 +4311,13 @@
         <v>50</v>
       </c>
       <c r="N26" t="s" s="50">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O26" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="P26" t="s" s="68">
-        <v>137</v>
+      <c r="P26" t="s" s="70">
+        <v>138</v>
       </c>
       <c r="Q26" s="52"/>
       <c r="R26" s="50"/>
@@ -4303,7 +4326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" ht="209.55" customHeight="1">
+    <row r="27" ht="222.55" customHeight="1">
       <c r="A27" s="44">
         <v>132</v>
       </c>
@@ -4314,10 +4337,10 @@
         <v>45</v>
       </c>
       <c r="D27" t="s" s="45">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s" s="46">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="47">
         <v>45012</v>
@@ -4326,10 +4349,10 @@
         <v>1679916848</v>
       </c>
       <c r="H27" t="s" s="49">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s" s="49">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" t="s" s="50">
         <v>50</v>
@@ -4342,13 +4365,13 @@
         <v>50</v>
       </c>
       <c r="N27" t="s" s="50">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O27" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P27" t="s" s="50">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="Q27" s="52"/>
       <c r="R27" s="50"/>
@@ -4368,10 +4391,10 @@
         <v>45</v>
       </c>
       <c r="D28" t="s" s="45">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s" s="46">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F28" s="47">
         <v>45012</v>
@@ -4380,10 +4403,10 @@
         <v>1679917146</v>
       </c>
       <c r="H28" t="s" s="49">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s" s="49">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s" s="50">
         <v>50</v>
@@ -4396,13 +4419,13 @@
         <v>50</v>
       </c>
       <c r="N28" t="s" s="50">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O28" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P28" t="s" s="50">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="52"/>
       <c r="R28" s="50"/>
@@ -4422,10 +4445,10 @@
         <v>45</v>
       </c>
       <c r="D29" t="s" s="45">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s" s="46">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F29" s="47">
         <v>45013</v>
@@ -4434,10 +4457,10 @@
         <v>1679998967</v>
       </c>
       <c r="H29" t="s" s="49">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s" s="49">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s" s="50">
         <v>50</v>
@@ -4450,13 +4473,13 @@
         <v>50</v>
       </c>
       <c r="N29" t="s" s="50">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O29" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P29" t="s" s="50">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="52"/>
       <c r="R29" s="50"/>
@@ -4476,10 +4499,10 @@
         <v>45</v>
       </c>
       <c r="D30" t="s" s="45">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s" s="46">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F30" s="47">
         <v>45013</v>
@@ -4488,10 +4511,10 @@
         <v>1679995797</v>
       </c>
       <c r="H30" t="s" s="49">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s" s="49">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J30" t="s" s="50">
         <v>50</v>
@@ -4504,13 +4527,13 @@
         <v>50</v>
       </c>
       <c r="N30" t="s" s="50">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O30" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P30" t="s" s="50">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="52"/>
       <c r="R30" s="50"/>
@@ -4530,10 +4553,10 @@
         <v>45</v>
       </c>
       <c r="D31" t="s" s="45">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s" s="46">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" s="47">
         <v>45013</v>
@@ -4542,10 +4565,10 @@
         <v>1679999135</v>
       </c>
       <c r="H31" t="s" s="49">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s" s="49">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s" s="50">
         <v>50</v>
@@ -4558,13 +4581,13 @@
         <v>50</v>
       </c>
       <c r="N31" t="s" s="50">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O31" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P31" t="s" s="50">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="52"/>
       <c r="R31" s="50"/>
@@ -4584,10 +4607,10 @@
         <v>45</v>
       </c>
       <c r="D32" t="s" s="45">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s" s="46">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F32" s="47">
         <v>45013</v>
@@ -4596,10 +4619,10 @@
         <v>1679999261</v>
       </c>
       <c r="H32" t="s" s="49">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s" s="49">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s" s="50">
         <v>50</v>
@@ -4612,13 +4635,13 @@
         <v>50</v>
       </c>
       <c r="N32" t="s" s="50">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O32" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P32" t="s" s="50">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="52"/>
       <c r="R32" s="50"/>
@@ -4638,10 +4661,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s" s="45">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s" s="46">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F33" s="47">
         <v>45013</v>
@@ -4650,10 +4673,10 @@
         <v>1680009861</v>
       </c>
       <c r="H33" t="s" s="49">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s" s="49">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J33" t="s" s="50">
         <v>50</v>
@@ -4666,13 +4689,13 @@
         <v>50</v>
       </c>
       <c r="N33" t="s" s="50">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O33" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P33" t="s" s="50">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="52"/>
       <c r="R33" s="50"/>
@@ -4692,10 +4715,10 @@
         <v>45</v>
       </c>
       <c r="D34" t="s" s="45">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s" s="46">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F34" s="47">
         <v>45013</v>
@@ -4704,10 +4727,10 @@
         <v>1679987625</v>
       </c>
       <c r="H34" t="s" s="49">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s" s="49">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J34" t="s" s="50">
         <v>50</v>
@@ -4720,13 +4743,13 @@
         <v>50</v>
       </c>
       <c r="N34" t="s" s="50">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O34" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P34" t="s" s="50">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="52"/>
       <c r="R34" s="50"/>
@@ -4746,10 +4769,10 @@
         <v>45</v>
       </c>
       <c r="D35" t="s" s="45">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s" s="46">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35" s="47">
         <v>45013</v>
@@ -4758,10 +4781,10 @@
         <v>1679988074</v>
       </c>
       <c r="H35" t="s" s="49">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I35" t="s" s="49">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J35" t="s" s="50">
         <v>50</v>
@@ -4774,13 +4797,13 @@
         <v>50</v>
       </c>
       <c r="N35" t="s" s="50">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O35" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P35" t="s" s="50">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="52"/>
       <c r="R35" s="50"/>
@@ -4800,10 +4823,10 @@
         <v>45</v>
       </c>
       <c r="D36" t="s" s="45">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s" s="46">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F36" s="47">
         <v>45013</v>
@@ -4812,10 +4835,10 @@
         <v>1679999520</v>
       </c>
       <c r="H36" t="s" s="49">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s" s="49">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J36" t="s" s="50">
         <v>50</v>
@@ -4828,13 +4851,13 @@
         <v>50</v>
       </c>
       <c r="N36" t="s" s="50">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O36" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P36" t="s" s="50">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="52"/>
       <c r="R36" s="50"/>
@@ -4843,7 +4866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" ht="300.55" customHeight="1">
+    <row r="37" ht="313.55" customHeight="1">
       <c r="A37" s="44">
         <v>142</v>
       </c>
@@ -4854,10 +4877,10 @@
         <v>45</v>
       </c>
       <c r="D37" t="s" s="45">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s" s="46">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F37" s="47">
         <v>45013</v>
@@ -4866,10 +4889,10 @@
         <v>1679988343</v>
       </c>
       <c r="H37" t="s" s="49">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s" s="49">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s" s="50">
         <v>50</v>
@@ -4882,13 +4905,13 @@
         <v>50</v>
       </c>
       <c r="N37" t="s" s="50">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O37" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P37" t="s" s="50">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="52"/>
       <c r="R37" s="50"/>
@@ -4897,7 +4920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="92.55" customHeight="1">
+    <row r="38" ht="170.55" customHeight="1">
       <c r="A38" s="44">
         <v>143</v>
       </c>
@@ -4908,10 +4931,10 @@
         <v>45</v>
       </c>
       <c r="D38" t="s" s="45">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E38" t="s" s="46">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F38" s="47">
         <v>45013</v>
@@ -4920,10 +4943,10 @@
         <v>1679988618</v>
       </c>
       <c r="H38" t="s" s="49">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s" s="49">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s" s="50">
         <v>50</v>
@@ -4936,13 +4959,13 @@
         <v>50</v>
       </c>
       <c r="N38" t="s" s="50">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P38" t="s" s="50">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="52"/>
       <c r="R38" s="50"/>
@@ -4951,7 +4974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" ht="92.55" customHeight="1">
+    <row r="39" ht="170.55" customHeight="1">
       <c r="A39" s="44">
         <v>144</v>
       </c>
@@ -4962,10 +4985,10 @@
         <v>45</v>
       </c>
       <c r="D39" t="s" s="45">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s" s="46">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F39" s="47">
         <v>45013</v>
@@ -4974,10 +4997,10 @@
         <v>1679988778</v>
       </c>
       <c r="H39" t="s" s="49">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s" s="49">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J39" t="s" s="50">
         <v>50</v>
@@ -4990,13 +5013,13 @@
         <v>50</v>
       </c>
       <c r="N39" t="s" s="50">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O39" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P39" t="s" s="50">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39" s="52"/>
       <c r="R39" s="50"/>
@@ -5005,7 +5028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" ht="105.55" customHeight="1">
+    <row r="40" ht="170.55" customHeight="1">
       <c r="A40" s="44">
         <v>145</v>
       </c>
@@ -5016,10 +5039,10 @@
         <v>45</v>
       </c>
       <c r="D40" t="s" s="45">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s" s="46">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F40" s="47">
         <v>45013</v>
@@ -5028,10 +5051,10 @@
         <v>1680006791</v>
       </c>
       <c r="H40" t="s" s="49">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I40" t="s" s="49">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J40" t="s" s="50">
         <v>50</v>
@@ -5044,13 +5067,13 @@
         <v>50</v>
       </c>
       <c r="N40" t="s" s="50">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O40" t="s" s="50">
         <v>66</v>
       </c>
       <c r="P40" t="s" s="50">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q40" s="52"/>
       <c r="R40" s="50"/>
@@ -5059,21 +5082,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" ht="105.05" customHeight="1">
-      <c r="A41" s="69">
+    <row r="41" ht="170.05" customHeight="1">
+      <c r="A41" s="71">
         <v>146</v>
       </c>
-      <c r="B41" t="s" s="70">
+      <c r="B41" t="s" s="72">
         <v>44</v>
       </c>
-      <c r="C41" t="s" s="70">
+      <c r="C41" t="s" s="72">
         <v>45</v>
       </c>
-      <c r="D41" t="s" s="70">
-        <v>220</v>
-      </c>
-      <c r="E41" t="s" s="71">
-        <v>221</v>
+      <c r="D41" t="s" s="72">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s" s="73">
+        <v>224</v>
       </c>
       <c r="F41" s="55">
         <v>45013</v>
@@ -5082,15 +5105,15 @@
         <v>1680006606</v>
       </c>
       <c r="H41" t="s" s="57">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s" s="57">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s" s="63">
         <v>50</v>
       </c>
-      <c r="K41" s="72"/>
+      <c r="K41" s="74"/>
       <c r="L41" t="s" s="63">
         <v>50</v>
       </c>
@@ -5098,18 +5121,18 @@
         <v>50</v>
       </c>
       <c r="N41" t="s" s="63">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O41" t="s" s="63">
         <v>66</v>
       </c>
       <c r="P41" t="s" s="63">
-        <v>225</v>
-      </c>
-      <c r="Q41" s="73"/>
+        <v>228</v>
+      </c>
+      <c r="Q41" s="75"/>
       <c r="R41" s="63"/>
-      <c r="S41" s="74"/>
-      <c r="T41" t="s" s="75">
+      <c r="S41" s="76"/>
+      <c r="T41" t="s" s="77">
         <v>68</v>
       </c>
     </row>
@@ -5119,21 +5142,21 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="79"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" s="3"/>
@@ -23742,123 +23765,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6667" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="81" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="81" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="81" customWidth="1"/>
-    <col min="4" max="4" width="120" style="81" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="81" customWidth="1"/>
-    <col min="6" max="16384" width="11.6719" style="81" customWidth="1"/>
+    <col min="1" max="1" width="16" style="83" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="83" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="83" customWidth="1"/>
+    <col min="4" max="4" width="120" style="83" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="83" customWidth="1"/>
+    <col min="6" max="16384" width="11.6719" style="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="82">
+      <c r="A1" t="s" s="84">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="83">
+      <c r="B1" t="s" s="85">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="83">
-        <v>226</v>
-      </c>
-      <c r="D1" t="s" s="84">
-        <v>227</v>
-      </c>
-      <c r="E1" s="85"/>
+      <c r="C1" t="s" s="85">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s" s="86">
+        <v>230</v>
+      </c>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="86">
-        <v>228</v>
+      <c r="A2" t="s" s="88">
+        <v>231</v>
       </c>
       <c r="B2" t="s" s="14">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s" s="87">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s" s="88">
-        <v>231</v>
-      </c>
-      <c r="E2" s="85"/>
+        <v>232</v>
+      </c>
+      <c r="C2" t="s" s="89">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s" s="90">
+        <v>234</v>
+      </c>
+      <c r="E2" s="87"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="89">
+      <c r="A3" t="s" s="91">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s" s="92">
         <v>232</v>
       </c>
-      <c r="B3" t="s" s="90">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s" s="91">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s" s="92">
-        <v>234</v>
-      </c>
-      <c r="E3" s="85"/>
+      <c r="C3" t="s" s="93">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s" s="94">
+        <v>237</v>
+      </c>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="89">
-        <v>235</v>
-      </c>
-      <c r="B4" t="s" s="90">
-        <v>229</v>
-      </c>
-      <c r="C4" t="s" s="91">
-        <v>236</v>
-      </c>
-      <c r="D4" t="s" s="93">
-        <v>237</v>
-      </c>
-      <c r="E4" s="85"/>
+      <c r="A4" t="s" s="91">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s" s="92">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s" s="93">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s" s="95">
+        <v>240</v>
+      </c>
+      <c r="E4" s="87"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="89">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s" s="90">
-        <v>229</v>
-      </c>
-      <c r="C5" t="s" s="91">
-        <v>239</v>
-      </c>
-      <c r="D5" t="s" s="92">
-        <v>240</v>
-      </c>
-      <c r="E5" s="85"/>
+      <c r="A5" t="s" s="91">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s" s="92">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s" s="93">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s" s="94">
+        <v>243</v>
+      </c>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="89">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s" s="90">
-        <v>229</v>
-      </c>
-      <c r="C6" t="s" s="91">
-        <v>242</v>
-      </c>
-      <c r="D6" t="s" s="93">
-        <v>243</v>
-      </c>
-      <c r="E6" s="85"/>
+      <c r="A6" t="s" s="91">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s" s="92">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s" s="93">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s" s="95">
+        <v>246</v>
+      </c>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="94">
+      <c r="A7" t="s" s="96">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="95">
-        <v>229</v>
-      </c>
-      <c r="C7" t="s" s="96">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s" s="93">
-        <v>245</v>
-      </c>
-      <c r="E7" s="85"/>
+      <c r="B7" t="s" s="97">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s" s="98">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s" s="95">
+        <v>248</v>
+      </c>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="19"/>
       <c r="E8" s="3"/>
     </row>
@@ -23893,10 +23916,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6667" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="98" customWidth="1"/>
-    <col min="2" max="2" width="13.1719" style="98" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="98" customWidth="1"/>
-    <col min="6" max="16384" width="11.6719" style="98" customWidth="1"/>
+    <col min="1" max="1" width="11" style="100" customWidth="1"/>
+    <col min="2" max="2" width="13.1719" style="100" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="100" customWidth="1"/>
+    <col min="6" max="16384" width="11.6719" style="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -23912,7 +23935,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>50</v>
@@ -23923,7 +23946,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>66</v>
@@ -23933,8 +23956,8 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-VPS/V.2.0/report-checklist.xlsx
@@ -528,7 +528,8 @@
     <t>Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'structuredBody' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":confidentialityCode, \"urn:hl7-org:v3\":languageCode, \"urn:hl7-org:v3\":component}' is expected.</t>
   </si>
   <si>
-    <t>ALERT: Si è verificato un errore: Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'structuredBody' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":confidentialityCode, \"urn:hl7-org:v3\":languageCode, \"urn:hl7-org:v3\":component}' is expected.</t>
+    <t>ALERT: Si è verificato un errore: Errore sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'structuredBody' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":confidentialityCode, \"urn:hl7-org:v3\":languageCode, \"urn:hl7-org:v3\":component}' is expected.
+Il confidentialityCode viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
@@ -628,7 +629,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]
-Il referto viene aggiunto in una coda di errori dalla quale è possibile apportare le dovute modifiche prima di effettuare nuovamente l’invio per la validazione.</t>
+La scelta del sesso del paziente avviene da una lista di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
@@ -940,7 +941,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: J].
-Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
+La scelta del valore avviene da un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
@@ -960,7 +961,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 561asdfasdf]
-Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
+La scelta del valore avviene da un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
@@ -981,7 +982,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.5, Codes: sdfsdfsdf]
-Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
+La scelta del valore avviene da un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
@@ -1002,7 +1003,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.2, Codes: null]
-Il referto viene aggiunto ad una coda di errori dalla quale è possibile apportare le opportune modifiche scegliendo un valore da una lista di valori previsti dal dizionario</t>
+La scelta del valore avviene da un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>ID TEST CASE OK</t>
@@ -3786,7 +3787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="274.55" customHeight="1">
+    <row r="17" ht="430.55" customHeight="1">
       <c r="A17" s="44">
         <v>122</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="170.55" customHeight="1">
+    <row r="22" ht="222.55" customHeight="1">
       <c r="A22" s="44">
         <v>127</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="170.55" customHeight="1">
+    <row r="38" ht="209.55" customHeight="1">
       <c r="A38" s="44">
         <v>143</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" ht="170.55" customHeight="1">
+    <row r="39" ht="209.55" customHeight="1">
       <c r="A39" s="44">
         <v>144</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" ht="170.55" customHeight="1">
+    <row r="40" ht="209.55" customHeight="1">
       <c r="A40" s="44">
         <v>145</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" ht="170.05" customHeight="1">
+    <row r="41" ht="209.05" customHeight="1">
       <c r="A41" s="71">
         <v>146</v>
       </c>
